--- a/data/trans_orig/IP16B02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF678556-3874-4C15-8CD1-6824955BCEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD13ECF3-BA2E-4C76-B243-06C7D080E430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C58020E0-D3C8-4C12-A7AA-5C9FA1515615}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{40018B5B-DCC3-4AAB-BAAE-AF4164704044}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -118,6 +118,57 @@
     <t>85,57%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -175,57 +226,6 @@
     <t>85,29%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
     <t>11,2%</t>
   </si>
   <si>
@@ -331,6 +331,60 @@
     <t>93,06%</t>
   </si>
   <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
     <t>3,53%</t>
   </si>
   <si>
@@ -379,60 +433,6 @@
     <t>89,39%</t>
   </si>
   <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
     <t>12,52%</t>
   </si>
   <si>
@@ -538,6 +538,54 @@
     <t>96,61%</t>
   </si>
   <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
     <t>15,61%</t>
   </si>
   <si>
@@ -584,54 +632,6 @@
   </si>
   <si>
     <t>89,86%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
   </si>
   <si>
     <t>8,99%</t>
@@ -1077,7 +1077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE10CC8-4EF5-4801-B419-1406DA52C34A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B8FE0D-5E61-44B8-84BC-D76E16D9449E}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1350,49 +1350,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>5365</v>
+        <v>1213</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2420</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="7">
+      <c r="K7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="7">
         <v>6</v>
       </c>
-      <c r="I7" s="7">
-        <v>4370</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="N7" s="7">
+        <v>3633</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="7">
-        <v>14</v>
-      </c>
-      <c r="N7" s="7">
-        <v>9735</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1401,49 +1401,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7">
-        <v>15488</v>
+        <v>19263</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7">
+        <v>8229</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="7">
-        <v>19</v>
-      </c>
-      <c r="I8" s="7">
-        <v>13328</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>41</v>
+      </c>
+      <c r="N8" s="7">
+        <v>27492</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="7">
+      <c r="Q8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="N8" s="7">
-        <v>28816</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1455,7 +1455,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="7">
-        <v>20853</v>
+        <v>20476</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>21</v>
@@ -1467,10 +1467,10 @@
         <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I9" s="7">
-        <v>17698</v>
+        <v>10649</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>21</v>
@@ -1482,10 +1482,10 @@
         <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="N9" s="7">
-        <v>38551</v>
+        <v>31125</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>21</v>
@@ -1499,55 +1499,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>1213</v>
+        <v>5365</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>6</v>
+      </c>
+      <c r="I10" s="7">
+        <v>4370</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2420</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>14</v>
+      </c>
+      <c r="N10" s="7">
+        <v>9735</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M10" s="7">
-        <v>6</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3633</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1556,25 +1556,25 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7">
-        <v>19263</v>
+        <v>15488</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
         <v>19</v>
       </c>
-      <c r="H11" s="7">
-        <v>12</v>
-      </c>
       <c r="I11" s="7">
-        <v>8229</v>
+        <v>13328</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>56</v>
@@ -1586,10 +1586,10 @@
         <v>58</v>
       </c>
       <c r="M11" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N11" s="7">
-        <v>27492</v>
+        <v>28816</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>59</v>
@@ -1610,7 +1610,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="7">
-        <v>20476</v>
+        <v>20853</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>21</v>
@@ -1622,10 +1622,10 @@
         <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I12" s="7">
-        <v>10649</v>
+        <v>17698</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>21</v>
@@ -1637,10 +1637,10 @@
         <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="N12" s="7">
-        <v>31125</v>
+        <v>38551</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>21</v>
@@ -1823,7 +1823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D1EE7E-AD89-4DD8-9695-1FACCFD3A45E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DA2232-141C-4BC1-8AF6-3C0BE1B0812E}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2096,49 +2096,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>647</v>
+        <v>4277</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3391</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M7" s="7">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" s="7">
-        <v>12</v>
-      </c>
-      <c r="I7" s="7">
-        <v>8220</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M7" s="7">
-        <v>13</v>
-      </c>
       <c r="N7" s="7">
-        <v>8867</v>
+        <v>7668</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,49 +2147,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D8" s="7">
-        <v>17675</v>
+        <v>21665</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="H8" s="7">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I8" s="7">
-        <v>19767</v>
+        <v>17374</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
       </c>
       <c r="N8" s="7">
-        <v>37441</v>
+        <v>39039</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,10 +2198,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D9" s="7">
-        <v>18322</v>
+        <v>25942</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>21</v>
@@ -2213,10 +2213,10 @@
         <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I9" s="7">
-        <v>27987</v>
+        <v>20765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>21</v>
@@ -2228,10 +2228,10 @@
         <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N9" s="7">
-        <v>46308</v>
+        <v>46707</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>21</v>
@@ -2245,55 +2245,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>4277</v>
+        <v>647</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>3391</v>
+        <v>8220</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>7668</v>
+        <v>8867</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,25 +2302,25 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" s="7">
-        <v>21665</v>
+        <v>17675</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I11" s="7">
-        <v>17374</v>
+        <v>19767</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>125</v>
@@ -2335,7 +2335,7 @@
         <v>54</v>
       </c>
       <c r="N11" s="7">
-        <v>39039</v>
+        <v>37441</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>128</v>
@@ -2353,10 +2353,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7">
-        <v>25942</v>
+        <v>18322</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>21</v>
@@ -2368,10 +2368,10 @@
         <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I12" s="7">
-        <v>20765</v>
+        <v>27987</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>21</v>
@@ -2383,10 +2383,10 @@
         <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N12" s="7">
-        <v>46707</v>
+        <v>46308</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>21</v>
@@ -2569,7 +2569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6D6264-81C3-4488-A58F-FF3D75C709E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E009AE5-0078-4C1E-9412-3C17559CBF81}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2842,40 +2842,40 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>2883</v>
+        <v>575</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>166</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2544</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5647</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>170</v>
       </c>
       <c r="M7" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>8531</v>
+        <v>3119</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>171</v>
@@ -2893,10 +2893,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="7">
-        <v>15589</v>
+        <v>14229</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>174</v>
@@ -2905,28 +2905,28 @@
         <v>175</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
+        <v>21</v>
+      </c>
+      <c r="I8" s="7">
+        <v>13492</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H8" s="7">
-        <v>32</v>
-      </c>
-      <c r="I8" s="7">
-        <v>22122</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="M8" s="7">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="N8" s="7">
-        <v>37710</v>
+        <v>27721</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>179</v>
@@ -2944,10 +2944,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7">
-        <v>18472</v>
+        <v>14804</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>21</v>
@@ -2959,10 +2959,10 @@
         <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I9" s="7">
-        <v>27769</v>
+        <v>16036</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>21</v>
@@ -2974,10 +2974,10 @@
         <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="N9" s="7">
-        <v>46241</v>
+        <v>30840</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>21</v>
@@ -2991,46 +2991,46 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>575</v>
+        <v>2883</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>2544</v>
+        <v>5647</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>186</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>3119</v>
+        <v>8531</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>187</v>
@@ -3048,10 +3048,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7">
-        <v>14229</v>
+        <v>15589</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>190</v>
@@ -3060,28 +3060,28 @@
         <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I11" s="7">
-        <v>13492</v>
+        <v>22122</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>22</v>
       </c>
       <c r="M11" s="7">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="N11" s="7">
-        <v>27721</v>
+        <v>37710</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>195</v>
@@ -3099,10 +3099,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D12" s="7">
-        <v>14804</v>
+        <v>18472</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>21</v>
@@ -3114,10 +3114,10 @@
         <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I12" s="7">
-        <v>16036</v>
+        <v>27769</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>21</v>
@@ -3129,10 +3129,10 @@
         <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="N12" s="7">
-        <v>30840</v>
+        <v>46241</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>21</v>

--- a/data/trans_orig/IP16B02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD13ECF3-BA2E-4C76-B243-06C7D080E430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34225C58-0721-4E78-83B1-B799BED3BD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{40018B5B-DCC3-4AAB-BAAE-AF4164704044}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AB68311B-E120-4A47-A82B-373FF38CFC0C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="216">
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolory/o para bajar la fiebre recetados por el médico en 2007 (Tasa respuesta: 7,08%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="238">
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2007 (Tasa respuesta: 7,08%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -67,7 +67,25 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
   </si>
   <si>
     <t>No</t>
@@ -79,613 +97,661 @@
     <t>0%</t>
   </si>
   <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
   </si>
   <si>
     <t>19,66%</t>
   </si>
   <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
   </si>
   <si>
     <t>14,66%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolory/o para bajar la fiebre recetados por el médico en 2012 (Tasa respuesta: 10,39%)</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2012 (Tasa respuesta: 10,39%)</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
   </si>
   <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
   </si>
   <si>
     <t>19,1%</t>
   </si>
   <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolory/o para bajar la fiebre recetados por el médico en 2015 (Tasa respuesta: 8,04%)</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2015 (Tasa respuesta: 8,04%)</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
   </si>
   <si>
     <t>16,72%</t>
   </si>
   <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
   </si>
 </sst>
 </file>
@@ -696,7 +762,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -792,39 +858,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -876,7 +942,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -987,13 +1053,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1002,6 +1061,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1066,19 +1132,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B8FE0D-5E61-44B8-84BC-D76E16D9449E}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710140C5-463E-4299-BE82-8603952AE0C3}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1195,10 +1281,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>12023</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1210,85 +1296,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>1195</v>
+        <v>7266</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>30</v>
+      </c>
+      <c r="N4" s="7">
+        <v>19288</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="7">
-        <v>2</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1195</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>26</v>
-      </c>
-      <c r="D5" s="7">
-        <v>17396</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>18</v>
-      </c>
-      <c r="I5" s="7">
-        <v>11065</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>44</v>
-      </c>
-      <c r="N5" s="7">
-        <v>28461</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1297,153 +1383,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>17396</v>
+        <v>12023</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>12260</v>
+        <v>7266</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N6" s="7">
-        <v>29656</v>
+        <v>19288</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>1213</v>
+        <v>21630</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7">
+        <v>16</v>
+      </c>
+      <c r="I7" s="7">
+        <v>10680</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>48</v>
+      </c>
+      <c r="N7" s="7">
+        <v>32310</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2420</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="7">
-        <v>6</v>
-      </c>
-      <c r="N7" s="7">
-        <v>3633</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>19263</v>
+        <v>1213</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="7">
+        <v>6</v>
+      </c>
+      <c r="I8" s="7">
+        <v>3615</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>8</v>
+      </c>
+      <c r="N8" s="7">
+        <v>4828</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7">
-        <v>8229</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="7">
-        <v>41</v>
-      </c>
-      <c r="N8" s="7">
-        <v>27492</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1452,153 +1538,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D9" s="7">
-        <v>20476</v>
+        <v>22843</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="7">
-        <v>10649</v>
+        <v>14295</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="N9" s="7">
-        <v>31125</v>
+        <v>37138</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>5365</v>
+        <v>8489</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>4370</v>
+        <v>6703</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N10" s="7">
-        <v>9735</v>
+        <v>15192</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7">
-        <v>23</v>
-      </c>
-      <c r="D11" s="7">
-        <v>15488</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>13328</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="M11" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>28816</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1607,153 +1693,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7">
-        <v>20853</v>
+        <v>8489</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>17698</v>
+        <v>6703</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="N12" s="7">
-        <v>38551</v>
+        <v>15192</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>6577</v>
+        <v>10005</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>7985</v>
+        <v>7973</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="M13" s="7">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N13" s="7">
-        <v>14562</v>
+        <v>17978</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>52148</v>
+        <v>5365</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>32622</v>
+        <v>4370</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="M14" s="7">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="N14" s="7">
-        <v>84770</v>
+        <v>9735</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1762,55 +1848,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>23</v>
+      </c>
+      <c r="D15" s="7">
+        <v>15370</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>18</v>
+      </c>
+      <c r="I15" s="7">
+        <v>12343</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>41</v>
+      </c>
+      <c r="N15" s="7">
+        <v>27713</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>78</v>
+      </c>
+      <c r="D16" s="7">
+        <v>52148</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="7">
+        <v>49</v>
+      </c>
+      <c r="I16" s="7">
+        <v>32622</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="7">
+        <v>127</v>
+      </c>
+      <c r="N16" s="7">
+        <v>84770</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6577</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="7">
+        <v>12</v>
+      </c>
+      <c r="I17" s="7">
+        <v>7985</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="7">
+        <v>22</v>
+      </c>
+      <c r="N17" s="7">
+        <v>14562</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>88</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>58725</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>61</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>40607</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
         <v>149</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>99332</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>21</v>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1823,8 +2070,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DA2232-141C-4BC1-8AF6-3C0BE1B0812E}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7F1C10-82AE-46DF-B1AC-98CB85E6BDC1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1840,7 +2087,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1941,100 +2188,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>4409</v>
+        <v>18595</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="I4" s="7">
-        <v>3419</v>
+        <v>23571</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="N4" s="7">
-        <v>7829</v>
+        <v>42166</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>25900</v>
+        <v>1488</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H5" s="7">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>26541</v>
+        <v>1297</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M5" s="7">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>52440</v>
+        <v>2785</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,117 +2290,117 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7">
-        <v>30309</v>
+        <v>20083</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I6" s="7">
-        <v>29960</v>
+        <v>24868</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="N6" s="7">
-        <v>60269</v>
+        <v>44951</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7">
-        <v>4277</v>
+        <v>22697</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I7" s="7">
-        <v>3391</v>
+        <v>15105</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="N7" s="7">
-        <v>7668</v>
+        <v>37801</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>21665</v>
+        <v>5824</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>107</v>
@@ -2162,10 +2409,10 @@
         <v>108</v>
       </c>
       <c r="H8" s="7">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>17374</v>
+        <v>4828</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>109</v>
@@ -2177,10 +2424,10 @@
         <v>111</v>
       </c>
       <c r="M8" s="7">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="N8" s="7">
-        <v>39039</v>
+        <v>10652</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>112</v>
@@ -2198,78 +2445,78 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7">
-        <v>25942</v>
+        <v>28521</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" s="7">
-        <v>20765</v>
+        <v>19933</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N9" s="7">
-        <v>46707</v>
+        <v>48453</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>647</v>
+        <v>12092</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="H10" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>8220</v>
+        <v>13315</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>117</v>
@@ -2281,10 +2528,10 @@
         <v>119</v>
       </c>
       <c r="M10" s="7">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="N10" s="7">
-        <v>8867</v>
+        <v>25408</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>120</v>
@@ -2299,28 +2546,28 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>17675</v>
+        <v>1375</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H11" s="7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>19767</v>
+        <v>3427</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>125</v>
@@ -2332,10 +2579,10 @@
         <v>127</v>
       </c>
       <c r="M11" s="7">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>37441</v>
+        <v>4801</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>128</v>
@@ -2353,63 +2600,63 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D12" s="7">
-        <v>18322</v>
+        <v>13467</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I12" s="7">
-        <v>27987</v>
+        <v>16742</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="N12" s="7">
-        <v>46308</v>
+        <v>30209</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>9333</v>
+        <v>11855</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>131</v>
@@ -2418,88 +2665,88 @@
         <v>132</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
+        <v>17</v>
+      </c>
+      <c r="I13" s="7">
+        <v>11689</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="7">
-        <v>22</v>
-      </c>
-      <c r="I13" s="7">
-        <v>15031</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
       </c>
       <c r="N13" s="7">
-        <v>24364</v>
+        <v>23544</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>65240</v>
+        <v>647</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>8</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5479</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H14" s="7">
-        <v>90</v>
-      </c>
-      <c r="I14" s="7">
-        <v>63680</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>9</v>
+      </c>
+      <c r="N14" s="7">
+        <v>6126</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="M14" s="7">
-        <v>183</v>
-      </c>
-      <c r="N14" s="7">
-        <v>128920</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,55 +2755,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>19</v>
+      </c>
+      <c r="D15" s="7">
+        <v>12502</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>25</v>
+      </c>
+      <c r="I15" s="7">
+        <v>17168</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>44</v>
+      </c>
+      <c r="N15" s="7">
+        <v>29670</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>93</v>
+      </c>
+      <c r="D16" s="7">
+        <v>65240</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="7">
+        <v>90</v>
+      </c>
+      <c r="I16" s="7">
+        <v>63680</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" s="7">
+        <v>183</v>
+      </c>
+      <c r="N16" s="7">
+        <v>128920</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>13</v>
+      </c>
+      <c r="D17" s="7">
+        <v>9333</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="7">
+        <v>22</v>
+      </c>
+      <c r="I17" s="7">
+        <v>15031</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" s="7">
+        <v>35</v>
+      </c>
+      <c r="N17" s="7">
+        <v>24364</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>106</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>74573</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>112</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>78711</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
         <v>218</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>153284</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>21</v>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2569,8 +2977,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E009AE5-0078-4C1E-9412-3C17559CBF81}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC36480E-6997-44A6-99A4-7CCE4B878B34}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2586,7 +2994,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2687,100 +3095,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>1185</v>
+        <v>10625</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>2171</v>
+        <v>9485</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="N4" s="7">
-        <v>3355</v>
+        <v>20110</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>652</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>27</v>
-      </c>
-      <c r="D5" s="7">
-        <v>17218</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>27</v>
-      </c>
-      <c r="I5" s="7">
-        <v>15999</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>33218</v>
+        <v>652</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,153 +3197,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>18403</v>
+        <v>11277</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>18170</v>
+        <v>9485</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="N6" s="7">
-        <v>36573</v>
+        <v>20762</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>575</v>
+        <v>14693</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I7" s="7">
-        <v>2544</v>
+        <v>16466</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="N7" s="7">
-        <v>3119</v>
+        <v>31159</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>14229</v>
+        <v>532</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>13492</v>
+        <v>4715</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="N8" s="7">
-        <v>27721</v>
+        <v>5247</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,153 +3352,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7">
-        <v>14804</v>
+        <v>15225</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I9" s="7">
-        <v>16036</v>
+        <v>21181</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="N9" s="7">
-        <v>30840</v>
+        <v>36406</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>2883</v>
+        <v>13181</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>5647</v>
+        <v>11984</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="N10" s="7">
-        <v>8531</v>
+        <v>25165</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>15589</v>
+        <v>2741</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>22122</v>
+        <v>772</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>37710</v>
+        <v>3513</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,153 +3507,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D12" s="7">
-        <v>18472</v>
+        <v>15922</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
+        <v>18</v>
+      </c>
+      <c r="I12" s="7">
+        <v>12756</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="7">
         <v>40</v>
       </c>
-      <c r="I12" s="7">
-        <v>27769</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="7">
-        <v>66</v>
-      </c>
       <c r="N12" s="7">
-        <v>46241</v>
+        <v>28678</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>4643</v>
+        <v>8537</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>10362</v>
+        <v>13678</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="M13" s="7">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N13" s="7">
-        <v>15005</v>
+        <v>22215</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>47036</v>
+        <v>718</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>51613</v>
+        <v>4875</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
-        <v>149</v>
+        <v>8</v>
       </c>
       <c r="N14" s="7">
-        <v>98649</v>
+        <v>5593</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,55 +3662,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>13</v>
+      </c>
+      <c r="D15" s="7">
+        <v>9255</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>27</v>
+      </c>
+      <c r="I15" s="7">
+        <v>18553</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>40</v>
+      </c>
+      <c r="N15" s="7">
+        <v>27808</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>69</v>
+      </c>
+      <c r="D16" s="7">
+        <v>47036</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H16" s="7">
+        <v>80</v>
+      </c>
+      <c r="I16" s="7">
+        <v>51613</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M16" s="7">
+        <v>149</v>
+      </c>
+      <c r="N16" s="7">
+        <v>98649</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>7</v>
+      </c>
+      <c r="D17" s="7">
+        <v>4643</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H17" s="7">
+        <v>15</v>
+      </c>
+      <c r="I17" s="7">
+        <v>10362</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M17" s="7">
+        <v>22</v>
+      </c>
+      <c r="N17" s="7">
+        <v>15005</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>76</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>51679</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>95</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>61975</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
         <v>171</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>113654</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>21</v>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16B02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B02-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34225C58-0721-4E78-83B1-B799BED3BD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06A29718-7FA9-4C83-A3E8-BDE9D0BDFE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AB68311B-E120-4A47-A82B-373FF38CFC0C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EADD46C8-5BA3-46A4-802C-F23CCE86E36E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="242">
   <si>
     <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2007 (Tasa respuesta: 7,08%)</t>
   </si>
@@ -112,13 +112,13 @@
     <t>94,69%</t>
   </si>
   <si>
-    <t>82,28%</t>
+    <t>82,08%</t>
   </si>
   <si>
     <t>74,71%</t>
   </si>
   <si>
-    <t>52,01%</t>
+    <t>52,79%</t>
   </si>
   <si>
     <t>88,68%</t>
@@ -127,16 +127,16 @@
     <t>87,0%</t>
   </si>
   <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
   </si>
   <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>17,72%</t>
+    <t>17,92%</t>
   </si>
   <si>
     <t>25,29%</t>
@@ -145,16 +145,16 @@
     <t>11,32%</t>
   </si>
   <si>
-    <t>47,99%</t>
+    <t>47,21%</t>
   </si>
   <si>
     <t>13,0%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -184,358 +184,364 @@
     <t>65,1%</t>
   </si>
   <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
   </si>
   <si>
     <t>64,6%</t>
   </si>
   <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
   </si>
   <si>
     <t>64,87%</t>
   </si>
   <si>
-    <t>49,77%</t>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2012 (Tasa respuesta: 10,39%)</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
   </si>
   <si>
     <t>79,58%</t>
   </si>
   <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>20,42%</t>
   </si>
   <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
   </si>
   <si>
     <t>78,47%</t>
   </si>
   <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
   </si>
   <si>
     <t>21,53%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2012 (Tasa respuesta: 10,39%)</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2015 (Tasa respuesta: 8,04%)</t>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2016 (Tasa respuesta: 8,04%)</t>
   </si>
   <si>
     <t>94,21%</t>
   </si>
   <si>
-    <t>66,43%</t>
+    <t>70,75%</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -544,13 +550,13 @@
     <t>96,86%</t>
   </si>
   <si>
-    <t>81,54%</t>
+    <t>84,47%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>33,57%</t>
+    <t>29,25%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -559,199 +565,205 @@
     <t>3,14%</t>
   </si>
   <si>
-    <t>18,46%</t>
+    <t>15,53%</t>
   </si>
   <si>
     <t>96,5%</t>
   </si>
   <si>
-    <t>80,98%</t>
+    <t>85,07%</t>
   </si>
   <si>
     <t>77,74%</t>
   </si>
   <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
   </si>
   <si>
     <t>85,59%</t>
   </si>
   <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>19,02%</t>
+    <t>14,93%</t>
   </si>
   <si>
     <t>22,26%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
   </si>
   <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
   </si>
   <si>
     <t>82,79%</t>
   </si>
   <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
   </si>
   <si>
     <t>93,95%</t>
   </si>
   <si>
-    <t>71,25%</t>
+    <t>63,52%</t>
   </si>
   <si>
     <t>87,75%</t>
   </si>
   <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>28,75%</t>
+    <t>36,48%</t>
   </si>
   <si>
     <t>12,25%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
   </si>
   <si>
     <t>92,24%</t>
   </si>
   <si>
-    <t>61,97%</t>
+    <t>67,55%</t>
   </si>
   <si>
     <t>73,72%</t>
   </si>
   <si>
-    <t>54,49%</t>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
   </si>
   <si>
     <t>79,89%</t>
   </si>
   <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>38,03%</t>
+    <t>32,45%</t>
   </si>
   <si>
     <t>26,28%</t>
   </si>
   <si>
-    <t>45,51%</t>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
   </si>
   <si>
     <t>91,01%</t>
   </si>
   <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
   </si>
   <si>
     <t>83,28%</t>
   </si>
   <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
   </si>
   <si>
     <t>86,8%</t>
   </si>
   <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
   </si>
   <si>
     <t>16,72%</t>
   </si>
   <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710140C5-463E-4299-BE82-8603952AE0C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15C97D7-B443-4A0E-B8CA-834B2F45DFC5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2070,7 +2082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7F1C10-82AE-46DF-B1AC-98CB85E6BDC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F0862A-4E3D-493C-A821-8CD7F72ACD67}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2349,13 +2361,13 @@
         <v>22697</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -2364,13 +2376,13 @@
         <v>15105</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -2379,13 +2391,13 @@
         <v>37801</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,13 +2412,13 @@
         <v>5824</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -2415,13 +2427,13 @@
         <v>4828</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -2430,13 +2442,13 @@
         <v>10652</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,10 +2516,10 @@
         <v>12092</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -2519,13 +2531,13 @@
         <v>13315</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -2534,13 +2546,13 @@
         <v>25408</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,13 +2567,13 @@
         <v>1375</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -2570,13 +2582,13 @@
         <v>3427</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -2585,13 +2597,13 @@
         <v>4801</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,10 +2671,10 @@
         <v>11855</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -2674,13 +2686,13 @@
         <v>11689</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -2689,13 +2701,13 @@
         <v>23544</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,13 +2722,13 @@
         <v>647</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -2725,13 +2737,13 @@
         <v>5479</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -2740,13 +2752,13 @@
         <v>6126</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2826,13 @@
         <v>65240</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H16" s="7">
         <v>90</v>
@@ -2829,13 +2841,13 @@
         <v>63680</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M16" s="7">
         <v>183</v>
@@ -2844,13 +2856,13 @@
         <v>128920</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,13 +2877,13 @@
         <v>9333</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -2880,13 +2892,13 @@
         <v>15031</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -2895,13 +2907,13 @@
         <v>24364</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,7 +2989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC36480E-6997-44A6-99A4-7CCE4B878B34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE25C72-749A-4D7E-B216-A8A4B2556674}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2994,7 +3006,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3101,10 +3113,10 @@
         <v>10625</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -3119,7 +3131,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -3131,10 +3143,10 @@
         <v>20110</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -3152,13 +3164,13 @@
         <v>652</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3173,7 +3185,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3182,13 +3194,13 @@
         <v>652</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,10 +3268,10 @@
         <v>14693</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -3271,13 +3283,13 @@
         <v>16466</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -3286,13 +3298,13 @@
         <v>31159</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,13 +3319,13 @@
         <v>532</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -3322,13 +3334,13 @@
         <v>4715</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -3337,13 +3349,13 @@
         <v>5247</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3423,13 @@
         <v>13181</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -3426,10 +3438,10 @@
         <v>11984</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -3441,13 +3453,13 @@
         <v>25165</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,13 +3474,13 @@
         <v>2741</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3477,13 +3489,13 @@
         <v>772</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -3492,13 +3504,13 @@
         <v>3513</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,10 +3578,10 @@
         <v>8537</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -3581,13 +3593,13 @@
         <v>13678</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -3596,13 +3608,13 @@
         <v>22215</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,13 +3629,13 @@
         <v>718</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -3632,13 +3644,13 @@
         <v>4875</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -3647,13 +3659,13 @@
         <v>5593</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,13 +3733,13 @@
         <v>47036</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H16" s="7">
         <v>80</v>
@@ -3736,13 +3748,13 @@
         <v>51613</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>149</v>
@@ -3751,13 +3763,13 @@
         <v>98649</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,13 +3784,13 @@
         <v>4643</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -3787,13 +3799,13 @@
         <v>10362</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -3802,13 +3814,13 @@
         <v>15005</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16B02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06A29718-7FA9-4C83-A3E8-BDE9D0BDFE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B46413F3-C465-46D3-9FE6-B2E51CE0E37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EADD46C8-5BA3-46A4-802C-F23CCE86E36E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AF447AAC-6F44-4ED8-91CF-866C1DE11D46}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2007 (Tasa respuesta: 7,08%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -76,15 +76,15 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>90,01%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
     <t>93,85%</t>
   </si>
   <si>
@@ -97,196 +97,196 @@
     <t>0%</t>
   </si>
   <si>
+    <t>14,51%</t>
+  </si>
+  <si>
     <t>9,99%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
     <t>6,15%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
     <t>94,69%</t>
   </si>
   <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
+    <t>82,87%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
   </si>
   <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
+    <t>17,13%</t>
   </si>
   <si>
     <t>13,0%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>81,26%</t>
+  </si>
+  <si>
     <t>86,51%</t>
   </si>
   <si>
-    <t>81,26%</t>
-  </si>
-  <si>
     <t>91,73%</t>
   </si>
   <si>
+    <t>18,74%</t>
+  </si>
+  <si>
     <t>13,49%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
     <t>8,27%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
     <t>65,1%</t>
   </si>
   <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
   </si>
   <si>
     <t>64,87%</t>
   </si>
   <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
   </si>
   <si>
     <t>34,9%</t>
   </si>
   <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
   </si>
   <si>
     <t>35,13%</t>
   </si>
   <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
   </si>
   <si>
     <t>88,8%</t>
   </si>
   <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
   </si>
   <si>
     <t>85,34%</t>
   </si>
   <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
   </si>
   <si>
     <t>14,66%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -295,475 +295,475 @@
     <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2012 (Tasa respuesta: 10,39%)</t>
   </si>
   <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
+    <t>74,25%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
+    <t>25,75%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
   </si>
   <si>
     <t>79,58%</t>
   </si>
   <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
   </si>
   <si>
     <t>78,02%</t>
   </si>
   <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
   </si>
   <si>
     <t>20,42%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
   </si>
   <si>
     <t>21,98%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
   </si>
   <si>
     <t>89,79%</t>
   </si>
   <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
+    <t>72,9%</t>
   </si>
   <si>
     <t>84,11%</t>
   </si>
   <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
+    <t>27,1%</t>
   </si>
   <si>
     <t>15,89%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
   </si>
   <si>
     <t>94,82%</t>
   </si>
   <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
+    <t>78,82%</t>
   </si>
   <si>
     <t>79,35%</t>
   </si>
   <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
   </si>
   <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
+    <t>21,18%</t>
   </si>
   <si>
     <t>20,65%</t>
   </si>
   <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
   </si>
   <si>
     <t>87,48%</t>
   </si>
   <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
   </si>
   <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2016 (Tasa respuesta: 8,04%)</t>
   </si>
   <si>
+    <t>88,85%</t>
+  </si>
+  <si>
     <t>94,21%</t>
   </si>
   <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
+    <t>74,58%</t>
   </si>
   <si>
     <t>96,86%</t>
   </si>
   <si>
-    <t>84,47%</t>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
+    <t>25,42%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>15,53%</t>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
   </si>
   <si>
     <t>96,5%</t>
   </si>
   <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
+    <t>81,28%</t>
   </si>
   <si>
     <t>85,59%</t>
   </si>
   <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
+    <t>18,72%</t>
   </si>
   <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
   </si>
   <si>
     <t>82,79%</t>
   </si>
   <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>87,75%</t>
   </si>
   <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
   </si>
   <si>
     <t>12,25%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
   </si>
   <si>
     <t>92,24%</t>
   </si>
   <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
+    <t>67,29%</t>
   </si>
   <si>
     <t>79,89%</t>
   </si>
   <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
+    <t>32,71%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
   </si>
   <si>
     <t>91,01%</t>
   </si>
   <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
   </si>
   <si>
     <t>86,8%</t>
   </si>
   <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
   </si>
 </sst>
 </file>
@@ -1175,7 +1175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15C97D7-B443-4A0E-B8CA-834B2F45DFC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964A86E0-93DF-4BF2-B2FD-FB088169BE1B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1293,10 +1293,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>12023</v>
+        <v>7266</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1308,10 +1308,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7">
-        <v>7266</v>
+        <v>12023</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -1395,25 +1395,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7">
+        <v>7266</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>18</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>12023</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7">
-        <v>7266</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1448,10 +1448,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>21630</v>
+        <v>10680</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1460,22 +1460,22 @@
         <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="7">
+        <v>32</v>
+      </c>
+      <c r="I7" s="7">
+        <v>21630</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>16</v>
-      </c>
-      <c r="I7" s="7">
-        <v>10680</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -1499,31 +1499,31 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>1213</v>
+        <v>3615</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1213</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="7">
-        <v>6</v>
-      </c>
-      <c r="I8" s="7">
-        <v>3615</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>35</v>
@@ -1550,25 +1550,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7">
+        <v>14295</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>34</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>22843</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>22</v>
-      </c>
-      <c r="I9" s="7">
-        <v>14295</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1603,10 +1603,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>8489</v>
+        <v>6703</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -1618,10 +1618,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>6703</v>
+        <v>8489</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
@@ -1705,25 +1705,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
+        <v>6703</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
+        <v>13</v>
+      </c>
+      <c r="I12" s="7">
         <v>8489</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>9</v>
-      </c>
-      <c r="I12" s="7">
-        <v>6703</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1758,10 +1758,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>10005</v>
+        <v>7973</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>47</v>
@@ -1773,10 +1773,10 @@
         <v>49</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>7973</v>
+        <v>10005</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1809,10 +1809,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>5365</v>
+        <v>4370</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>56</v>
@@ -1824,10 +1824,10 @@
         <v>58</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>4370</v>
+        <v>5365</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>59</v>
@@ -1860,25 +1860,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>18</v>
+      </c>
+      <c r="D15" s="7">
+        <v>12343</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>23</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>15370</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>18</v>
-      </c>
-      <c r="I15" s="7">
-        <v>12343</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1913,10 +1913,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="D16" s="7">
-        <v>52148</v>
+        <v>32622</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>65</v>
@@ -1928,10 +1928,10 @@
         <v>67</v>
       </c>
       <c r="H16" s="7">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="I16" s="7">
-        <v>32622</v>
+        <v>52148</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>68</v>
@@ -1964,10 +1964,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>6577</v>
+        <v>7985</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>74</v>
@@ -1979,10 +1979,10 @@
         <v>76</v>
       </c>
       <c r="H17" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I17" s="7">
-        <v>7985</v>
+        <v>6577</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>77</v>
@@ -2015,25 +2015,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>61</v>
+      </c>
+      <c r="D18" s="7">
+        <v>40607</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>88</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>58725</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>61</v>
-      </c>
-      <c r="I18" s="7">
-        <v>40607</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -2082,7 +2082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F0862A-4E3D-493C-A821-8CD7F72ACD67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8E2458-8866-4996-8EAA-8C4E2A0E998A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2200,10 +2200,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D4" s="7">
-        <v>18595</v>
+        <v>23571</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>85</v>
@@ -2215,10 +2215,10 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>23571</v>
+        <v>18595</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>87</v>
@@ -2254,7 +2254,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>1488</v>
+        <v>1297</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>92</v>
@@ -2269,7 +2269,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>1297</v>
+        <v>1488</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>94</v>
@@ -2302,25 +2302,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>36</v>
+      </c>
+      <c r="D6" s="7">
+        <v>24868</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>29</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>20083</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>36</v>
-      </c>
-      <c r="I6" s="7">
-        <v>24868</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -2355,10 +2355,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>22697</v>
+        <v>15105</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>99</v>
@@ -2370,10 +2370,10 @@
         <v>101</v>
       </c>
       <c r="H7" s="7">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I7" s="7">
-        <v>15105</v>
+        <v>22697</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>102</v>
@@ -2406,10 +2406,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>5824</v>
+        <v>4828</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>108</v>
@@ -2421,10 +2421,10 @@
         <v>110</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>4828</v>
+        <v>5824</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>111</v>
@@ -2457,25 +2457,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>28</v>
+      </c>
+      <c r="D9" s="7">
+        <v>19933</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>39</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>28521</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>28</v>
-      </c>
-      <c r="I9" s="7">
-        <v>19933</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2510,10 +2510,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>12092</v>
+        <v>13315</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>117</v>
@@ -2522,22 +2522,22 @@
         <v>118</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="7">
+        <v>17</v>
+      </c>
+      <c r="I10" s="7">
+        <v>12092</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="H10" s="7">
-        <v>18</v>
-      </c>
-      <c r="I10" s="7">
-        <v>13315</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -2561,31 +2561,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>1375</v>
+        <v>3427</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>125</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1375</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3427</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>129</v>
@@ -2612,25 +2612,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7">
+        <v>16742</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>19</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>13467</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>23</v>
-      </c>
-      <c r="I12" s="7">
-        <v>16742</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2665,10 +2665,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>11855</v>
+        <v>11689</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>133</v>
@@ -2677,22 +2677,22 @@
         <v>134</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="7">
+        <v>18</v>
+      </c>
+      <c r="I13" s="7">
+        <v>11855</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="H13" s="7">
-        <v>17</v>
-      </c>
-      <c r="I13" s="7">
-        <v>11689</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -2716,31 +2716,31 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>647</v>
+        <v>5479</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>141</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>647</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H14" s="7">
-        <v>8</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5479</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>145</v>
@@ -2767,25 +2767,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7">
+        <v>17168</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>19</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>12502</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>25</v>
-      </c>
-      <c r="I15" s="7">
-        <v>17168</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2820,10 +2820,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D16" s="7">
-        <v>65240</v>
+        <v>63680</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>149</v>
@@ -2835,10 +2835,10 @@
         <v>151</v>
       </c>
       <c r="H16" s="7">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I16" s="7">
-        <v>63680</v>
+        <v>65240</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>152</v>
@@ -2871,10 +2871,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7">
-        <v>9333</v>
+        <v>15031</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>157</v>
@@ -2886,10 +2886,10 @@
         <v>159</v>
       </c>
       <c r="H17" s="7">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I17" s="7">
-        <v>15031</v>
+        <v>9333</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>160</v>
@@ -2922,25 +2922,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>112</v>
+      </c>
+      <c r="D18" s="7">
+        <v>78711</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>106</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>74573</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>112</v>
-      </c>
-      <c r="I18" s="7">
-        <v>78711</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -2989,7 +2989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE25C72-749A-4D7E-B216-A8A4B2556674}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5574331F-9317-4D28-95A5-0B4DAECF76FA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3107,34 +3107,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9485</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
         <v>17</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>10625</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="7">
-        <v>16</v>
-      </c>
-      <c r="I4" s="7">
-        <v>9485</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>168</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -3158,31 +3158,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>652</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>173</v>
@@ -3209,25 +3209,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9485</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>18</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>11277</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>16</v>
-      </c>
-      <c r="I6" s="7">
-        <v>9485</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -3262,10 +3262,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7">
-        <v>14693</v>
+        <v>16466</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>176</v>
@@ -3274,22 +3274,22 @@
         <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="7">
+        <v>22</v>
+      </c>
+      <c r="I7" s="7">
+        <v>14693</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>27</v>
-      </c>
-      <c r="I7" s="7">
-        <v>16466</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -3313,31 +3313,31 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>532</v>
+        <v>4715</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>532</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H8" s="7">
-        <v>7</v>
-      </c>
-      <c r="I8" s="7">
-        <v>4715</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>188</v>
@@ -3364,25 +3364,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>34</v>
+      </c>
+      <c r="D9" s="7">
+        <v>21181</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>23</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>15225</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>34</v>
-      </c>
-      <c r="I9" s="7">
-        <v>21181</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -3417,10 +3417,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>13181</v>
+        <v>11984</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>192</v>
@@ -3429,22 +3429,22 @@
         <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7">
+        <v>18</v>
+      </c>
+      <c r="I10" s="7">
+        <v>13181</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H10" s="7">
-        <v>17</v>
-      </c>
-      <c r="I10" s="7">
-        <v>11984</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -3468,31 +3468,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>2741</v>
+        <v>772</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>4</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2741</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>772</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>204</v>
@@ -3519,25 +3519,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7">
+        <v>12756</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>22</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>15922</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>18</v>
-      </c>
-      <c r="I12" s="7">
-        <v>12756</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3572,10 +3572,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>8537</v>
+        <v>13678</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>208</v>
@@ -3584,22 +3584,22 @@
         <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H13" s="7">
+        <v>12</v>
+      </c>
+      <c r="I13" s="7">
+        <v>8537</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="H13" s="7">
-        <v>20</v>
-      </c>
-      <c r="I13" s="7">
-        <v>13678</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -3623,31 +3623,31 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>718</v>
+        <v>4875</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>718</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H14" s="7">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4875</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>220</v>
@@ -3674,25 +3674,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7">
+        <v>18553</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>13</v>
+      </c>
+      <c r="I15" s="7">
         <v>9255</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>27</v>
-      </c>
-      <c r="I15" s="7">
-        <v>18553</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3727,10 +3727,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D16" s="7">
-        <v>47036</v>
+        <v>51613</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>224</v>
@@ -3742,10 +3742,10 @@
         <v>226</v>
       </c>
       <c r="H16" s="7">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="I16" s="7">
-        <v>51613</v>
+        <v>47036</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>227</v>
@@ -3778,10 +3778,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>4643</v>
+        <v>10362</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>233</v>
@@ -3793,10 +3793,10 @@
         <v>235</v>
       </c>
       <c r="H17" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>10362</v>
+        <v>4643</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>236</v>
@@ -3829,25 +3829,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>95</v>
+      </c>
+      <c r="D18" s="7">
+        <v>61975</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>76</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>51679</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>95</v>
-      </c>
-      <c r="I18" s="7">
-        <v>61975</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
